--- a/upload_files/111.xlsx
+++ b/upload_files/111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0A066-0CF2-8243-9C37-AE1271AC0AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC293CDB-CD10-B947-B323-F2A0B7F0B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="2180" windowWidth="28040" windowHeight="17360" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>manager</t>
   </si>
@@ -113,13 +113,31 @@
   </si>
   <si>
     <t>eeef</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>egger</t>
+  </si>
+  <si>
+    <t>eggergegeg</t>
+  </si>
+  <si>
+    <t>regegrgrrege</t>
+  </si>
+  <si>
+    <t>egrergegergrge</t>
+  </si>
+  <si>
+    <t>Иванушка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +162,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,9 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -487,7 +512,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -582,7 +607,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -608,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -634,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -660,10 +685,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -715,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
